--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3373500.163787484</v>
+        <v>3477679.798238556</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283175</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859941.482472575</v>
+        <v>7859941.482472573</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>331.4820655783606</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>38.33803137561117</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.45803047044394</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>87.93270968653135</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>4.845158429545187</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>355.829964499072</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.888116117036382</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>264.2587064907689</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>330.1313724127989</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.27311936184015</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.8173248054909</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>184.1641512798903</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695514</v>
+        <v>83.70251495695648</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.96996784160199</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>165.1666147997997</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881302</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856541</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>60.11729550773885</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>69.18922512558713</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695514</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>24.0646644861424</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856538</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>177.9413471369476</v>
       </c>
     </row>
     <row r="20">
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1686991936231</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>167.5280026112704</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189414</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>23.10998325717215</v>
       </c>
       <c r="H28" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>65.44930784064577</v>
+        <v>248.7909999669016</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.05480806223588</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>77.73359659137272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>53.22824985092664</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>122.8704329402507</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>56.04917322725592</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>93.40444476188276</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1638.360256348809</v>
+        <v>1998.10447029351</v>
       </c>
       <c r="C2" t="n">
-        <v>1269.397739408397</v>
+        <v>1629.141953353098</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1270.876254746348</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649822</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388742</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.96009641293</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.4564109463973</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>121.5202280184904</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201672</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.1048757766371</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1575.942324366272</v>
+        <v>1964.273285499504</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1595.310768559092</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1237.045069952341</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X5" t="n">
-        <v>1966.081656342083</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y5" t="n">
-        <v>1575.942324366272</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="6">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>913.9293127706735</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>722.2434285974999</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>500.476813167026</v>
       </c>
       <c r="U7" t="n">
-        <v>653.9590194638729</v>
+        <v>500.476813167026</v>
       </c>
       <c r="V7" t="n">
-        <v>653.9590194638729</v>
+        <v>500.476813167026</v>
       </c>
       <c r="W7" t="n">
-        <v>364.5418494269122</v>
+        <v>500.476813167026</v>
       </c>
       <c r="X7" t="n">
-        <v>364.5418494269122</v>
+        <v>500.476813167026</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.5418494269122</v>
+        <v>500.476813167026</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.42314369238</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C8" t="n">
-        <v>1600.460626751969</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1600.460626751969</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1214.672374153724</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>803.6864693641169</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>388.6140192091133</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>91.03041881788056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732314</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756502</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>228.3690586831149</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>228.3690586831149</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>228.3690586831149</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>228.3690586831149</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>81.47911118520454</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013565</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9536817013565</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W10" t="n">
-        <v>252.5365116643958</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>410.0175235133546</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168632</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362705</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911439</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835325</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711968</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888038</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908935</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782959</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2433.862105962482</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2251.007271617387</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2031.405806640328</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1742.330579984526</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1487.646091778639</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1198.228921741679</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.228921741679</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741679</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356187</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232831</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408901</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.782243341199</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135312</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135312</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237295</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093765</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5494,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5546,10 +5548,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856896</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577828</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454472</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>341.9229394630543</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>341.9229394630543</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602306</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.74706939642</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359459</v>
+        <v>1688.043910473549</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359459</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159292</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5783,7 +5785,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5829,25 +5831,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400749</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121681</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121681</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121681</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>198.0274703142579</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510511</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854709</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648822</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611862</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138444</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703145</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487672</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597652</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474296</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650367</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614415</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179116</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6311,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F28" t="n">
-        <v>135.9796239950296</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G28" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6424,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1726.157040139901</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1471.472551934014</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,49 +6694,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,7 +6955,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1920.063992790047</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2343.687142285115</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>486.4214942667323</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>339.531546768822</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>172.3354474837019</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>172.3354474837019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>594.8179559048574</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>446.9048623224643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>300.0149148245539</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>300.0149148245539</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.347757088083</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2207.492922742988</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1987.891457765928</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1698.816231110126</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,34 +7654,34 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7740,13 +7742,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.40527886851955</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>121.3563835367913</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>226.0671788815051</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>182.9484181982409</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>141.4594738061263</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>40.64330621514716</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>62.35543909864559</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856538</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>118.6564717779738</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.505489761037</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="H28" t="n">
-        <v>98.55338150863676</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>220.7351665485984</v>
+        <v>37.39347442234254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>3.532239727192803</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>114.0185712477012</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>17.42427990597322</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>10.32607348286574</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>52.01660326104849</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244625</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
-      </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132558</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687981</v>
+        <v>15436.64000687956</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687981</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687972</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687972</v>
-      </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687972</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685757</v>
+        <v>-770811.793268576</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590165</v>
+        <v>557932.9524590163</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590166</v>
+        <v>557932.9524590167</v>
       </c>
       <c r="E6" t="n">
-        <v>304638.9730751131</v>
+        <v>304638.973075113</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.4348824681</v>
+        <v>630051.434882469</v>
       </c>
       <c r="G6" t="n">
+        <v>630051.4348824688</v>
+      </c>
+      <c r="H6" t="n">
+        <v>630051.4348824688</v>
+      </c>
+      <c r="I6" t="n">
         <v>630051.4348824685</v>
       </c>
-      <c r="H6" t="n">
-        <v>630051.4348824684</v>
-      </c>
-      <c r="I6" t="n">
-        <v>630051.4348824688</v>
-      </c>
       <c r="J6" t="n">
-        <v>412520.2324851914</v>
+        <v>412520.2324851912</v>
       </c>
       <c r="K6" t="n">
         <v>630051.4348824685</v>
       </c>
       <c r="L6" t="n">
+        <v>630051.4348824683</v>
+      </c>
+      <c r="M6" t="n">
+        <v>544996.4069469566</v>
+      </c>
+      <c r="N6" t="n">
+        <v>630051.4348824683</v>
+      </c>
+      <c r="O6" t="n">
         <v>630051.4348824685</v>
-      </c>
-      <c r="M6" t="n">
-        <v>544996.4069469569</v>
-      </c>
-      <c r="N6" t="n">
-        <v>630051.4348824688</v>
-      </c>
-      <c r="O6" t="n">
-        <v>630051.4348824687</v>
       </c>
       <c r="P6" t="n">
         <v>630051.4348824685</v>
@@ -26719,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.2009760423224</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>343.5923386966506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>94.15744254776843</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>377.0852116427166</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>13.90113617939699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>82.04403655301095</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>21.95313171484401</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>35.14151935820865</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>17.3038104110858</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>151.2084834535373</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>41.54550410914686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28144,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.965252993838806e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28333,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.568326546161192e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28579,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.233548505244973e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-5.958360270247413e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>366.8427442359088</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>248.74493692092</v>
+        <v>637.8521160493908</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32317,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366843</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,28 +32551,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451602</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663259</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34460,16 +34462,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>235.5010321525754</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191316</v>
@@ -35586,7 +35588,7 @@
         <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410458</v>
+        <v>499.2977362695167</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35820,10 +35822,10 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>237.286271753351</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295357</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295357</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>432.0572943778175</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>174.4792836591387</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396396</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3477679.798238556</v>
+        <v>3473667.188224562</v>
       </c>
     </row>
     <row r="7">
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>38.33803137561117</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>136.4159137733169</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>87.93270968653135</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>4.845158429545187</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>256.3954768515548</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386316</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.888116117036382</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>330.1313724127989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>312.5406804749094</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.8173248054909</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444156</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695648</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576168</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>165.1666147997997</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>69.18922512558713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126712</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.9413471369476</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>167.5280026112704</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2371,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.2821160880071</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>23.10998325717215</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>248.7909999669016</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>77.73359659137272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>53.22824985092664</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>56.04917322725592</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>103.8784673763403</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1998.10447029351</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.141953353098</v>
+        <v>1703.012869240225</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.876254746348</v>
+        <v>1344.747170633475</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>958.9589180352307</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.10447029351</v>
+        <v>2071.975386180637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>523.9612719922603</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>373.8446325799246</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>225.9315389975314</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>79.04159149962109</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133545</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>155.3330353074676</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.273285499504</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.310768559092</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="D5" t="n">
-        <v>1237.045069952341</v>
+        <v>1133.30365008772</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>747.5153974894761</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>336.5294926998685</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>325.4974465852691</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539437</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X5" t="n">
-        <v>2741.012457539437</v>
+        <v>2268.308520734404</v>
       </c>
       <c r="Y5" t="n">
-        <v>2350.873125563625</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,13 +4664,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.476813167026</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>913.9293127706735</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>722.2434285974999</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>500.476813167026</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>500.476813167026</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>500.476813167026</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>500.476813167026</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>500.476813167026</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.476813167026</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.299101484277</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2756.377687837644</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524211</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548399</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>228.3690586831149</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>228.3690586831149</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>228.3690586831149</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>228.3690586831149</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>81.47911118520454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>410.0175235133546</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>410.0175235133546</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>410.0175235133546</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>410.0175235133546</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.0175235133546</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168632</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362705</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273915</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167374</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998423</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872154</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510509</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473549</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.054359575531</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5785,7 +5785,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.195370459393</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6013,10 +6013,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6232,10 +6232,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773693</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>117.1600804794589</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6411,25 +6411,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,25 +6463,25 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6545,22 +6545,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.157040139901</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1471.472551934014</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1182.055381897053</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897053</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
@@ -6709,40 +6709,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.15426255076</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1920.063992790047</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.687142285115</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>486.4214942667323</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>339.531546768822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>172.3354474837019</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>172.3354474837019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>835.5837926935562</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
         <v>631.7012443408905</v>
@@ -7329,13 +7329,13 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7359,25 +7359,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1238.024836667326</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.232257523796</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7493,22 +7493,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2390.347757088083</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2207.492922742988</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1987.891457765928</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1698.816231110126</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1444.131742904239</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1154.714572867279</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>926.7250219692613</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>705.9324428257312</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,13 +7739,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9405071576781</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>365.9405071576781</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>198.744407872558</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>121.3563835367913</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>182.9484181982409</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.64330621514716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>118.6564717779738</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>37.39347442234254</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.532239727192803</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>114.0185712477012</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.32607348286574</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132558</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687961</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26453,10 +26453,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.793268576</v>
+        <v>-770811.7932685758</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.9524590166</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590169</v>
       </c>
       <c r="E6" t="n">
-        <v>304638.973075113</v>
+        <v>304291.593820756</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.434882469</v>
+        <v>629704.0556281116</v>
       </c>
       <c r="G6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281114</v>
       </c>
       <c r="H6" t="n">
-        <v>630051.4348824688</v>
+        <v>629704.0556281116</v>
       </c>
       <c r="I6" t="n">
-        <v>630051.4348824685</v>
+        <v>629704.0556281116</v>
       </c>
       <c r="J6" t="n">
-        <v>412520.2324851912</v>
+        <v>412172.8532308344</v>
       </c>
       <c r="K6" t="n">
-        <v>630051.4348824685</v>
+        <v>629704.0556281115</v>
       </c>
       <c r="L6" t="n">
-        <v>630051.4348824683</v>
+        <v>629704.0556281115</v>
       </c>
       <c r="M6" t="n">
-        <v>544996.4069469566</v>
+        <v>544649.0276925995</v>
       </c>
       <c r="N6" t="n">
-        <v>630051.4348824683</v>
+        <v>629704.0556281114</v>
       </c>
       <c r="O6" t="n">
-        <v>630051.4348824685</v>
+        <v>629704.0556281115</v>
       </c>
       <c r="P6" t="n">
-        <v>630051.4348824685</v>
+        <v>629704.0556281114</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>343.5923386966506</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>270.4601319683945</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>153.6216279422649</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>198.5902886500596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>377.0852116427166</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.21228753576565</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>82.04403655301095</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>35.14151935820865</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>15.21157799522553</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>151.2084834535373</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28146,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.965252993838806e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.568326546161192e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>-1.209912170452299e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.233548505244973e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29325,10 +29325,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.958360270247413e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359088</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>637.8521160493908</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,10 +32101,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366843</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.6544928674244</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>314.4610577451602</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663259</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525754</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>499.2977362695167</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754089</v>
@@ -35971,22 +35971,22 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>237.286271753351</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>476.2000925419561</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>174.4792836591387</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3473667.188224562</v>
+        <v>3475427.718527348</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>136.4159137733169</v>
+        <v>136.4159137733196</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>12.40418031676334</v>
+        <v>12.40418031676373</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>256.3954768515548</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.400304892655044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>58.28185552386316</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>26.36535177770105</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>312.5406804749094</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206846</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576168</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H19" t="n">
-        <v>35.41770597126712</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>140.307475200959</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>84.53948348634543</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.012869240225</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.747170633475</v>
+        <v>1344.747170633478</v>
       </c>
       <c r="E2" t="n">
-        <v>958.9589180352307</v>
+        <v>958.9589180352334</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4403,16 +4403,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.8974549201672</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="C4" t="n">
-        <v>523.9612719922603</v>
+        <v>523.9612719922608</v>
       </c>
       <c r="D4" t="n">
-        <v>373.8446325799246</v>
+        <v>373.844632579925</v>
       </c>
       <c r="E4" t="n">
-        <v>225.9315389975314</v>
+        <v>225.9315389975319</v>
       </c>
       <c r="F4" t="n">
-        <v>79.04159149962109</v>
+        <v>79.04159149962155</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696228</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201672</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.8974549201672</v>
+        <v>692.8974549201677</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694471</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.569348694471</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D5" t="n">
-        <v>1133.30365008772</v>
+        <v>879.773173361559</v>
       </c>
       <c r="E5" t="n">
-        <v>747.5153974894761</v>
+        <v>493.9849207633147</v>
       </c>
       <c r="F5" t="n">
-        <v>336.5294926998685</v>
+        <v>82.99901597370717</v>
       </c>
       <c r="G5" t="n">
-        <v>325.4974465852691</v>
+        <v>71.96696985910772</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>71.96696985910772</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609169</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265598</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995484</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734404</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,13 +4664,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879448</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600379</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477022</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653091</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>125.3826775673987</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>900.949988396959</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>515.1617357987147</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>104.1758310091072</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>93.14378489450773</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>93.14378489450773</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2756.377687837644</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.60903256753</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.14327430645</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4950,61 +4950,61 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>296.7882229101294</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>129.5921236250094</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,22 +6001,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,19 +6241,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7839,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
   </sheetData>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>117.6820817884486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
-        <v>104.8770068749567</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.45968844823058</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>26.93934589766886</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>80.98465480592341</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045508</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.604713255</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.604713255</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687958</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687961</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26438,10 +26438,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685758</v>
+        <v>-770811.7932685761</v>
       </c>
       <c r="C6" t="n">
         <v>557932.9524590166</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590169</v>
+        <v>557932.9524590163</v>
       </c>
       <c r="E6" t="n">
-        <v>304291.593820756</v>
+        <v>304604.2351496777</v>
       </c>
       <c r="F6" t="n">
-        <v>629704.0556281116</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="G6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="H6" t="n">
-        <v>629704.0556281116</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="I6" t="n">
-        <v>629704.0556281116</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="J6" t="n">
-        <v>412172.8532308344</v>
+        <v>412485.4945597552</v>
       </c>
       <c r="K6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="L6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="M6" t="n">
-        <v>544649.0276925995</v>
+        <v>544961.6690215208</v>
       </c>
       <c r="N6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570325</v>
       </c>
       <c r="O6" t="n">
-        <v>629704.0556281115</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="P6" t="n">
-        <v>629704.0556281114</v>
+        <v>630016.6969570329</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>270.4601319683945</v>
+        <v>270.4601319683918</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.6216279422649</v>
+        <v>153.6216279422645</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>38.21228753576565</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>36.17662488027091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.2115779952249</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>15.21157799522553</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.209912170452299e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
